--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1181.894887231445</v>
+        <v>1086.408726433095</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0410001277923584</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>33.62408323967798</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38703688534934</v>
+        <v>14.39206600939233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.571887095804371</v>
+        <v>7.176709202809309</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.4899999999961</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>606.8000000000001</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.452887381969141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.558446912874963</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.33301651610694</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>15.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>39.15133323620116</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.15133323620116</v>
+        <v>35.57537733795152</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,29 +1113,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50.75499999999964</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.12499999999964</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95499999999964</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.15499999999964</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.96999999999964</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.0549999999994</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7749999999994</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.6749999999994</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.3349999999994</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>117.75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>140.45</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>132.2849999999999</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>139.2399999999999</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>143.2450000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>144.4349999999999</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>100.76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>100.705</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>103.625</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>112.525000000001</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.025</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.0549999999994</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>116.7749999999994</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.6749999999994</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>115.3349999999994</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>117.75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>140.45</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>132.2849999999999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>139.2399999999999</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>143.2450000000009</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>144.4349999999999</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.05499999999942</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16.77499999999941</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.67499999999941</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.33499999999943</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.44999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>32.28499999999985</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>39.23999999999987</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>43.24500000000086</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>44.43499999999986</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,7 +2096,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2107,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2118,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2129,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,7 +2140,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2220,10 +2206,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2231,10 +2217,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2242,10 +2228,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2253,23 +2239,12 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
